--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>323.9774866095436</v>
+        <v>211.9533269212014</v>
       </c>
       <c r="R2">
-        <v>2915.797379485893</v>
+        <v>1907.579942290812</v>
       </c>
       <c r="S2">
-        <v>0.0001997316140355092</v>
+        <v>0.0001758613532272719</v>
       </c>
       <c r="T2">
-        <v>0.0002090178264464152</v>
+        <v>0.0001872901910790548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>1245.56511975706</v>
+        <v>1064.489666686422</v>
       </c>
       <c r="R3">
-        <v>11210.08607781354</v>
+        <v>9580.407000177802</v>
       </c>
       <c r="S3">
-        <v>0.0007678889491949081</v>
+        <v>0.0008832255478090175</v>
       </c>
       <c r="T3">
-        <v>0.000803590757967873</v>
+        <v>0.0009406244099650268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>2105.042129919142</v>
+        <v>2215.34677027293</v>
       </c>
       <c r="R4">
-        <v>18945.37916927228</v>
+        <v>19938.12093245637</v>
       </c>
       <c r="S4">
-        <v>0.0012977551823785</v>
+        <v>0.001838111656688948</v>
       </c>
       <c r="T4">
-        <v>0.001358092301963276</v>
+        <v>0.00195756644133752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>1046.858772062928</v>
+        <v>1082.499057169868</v>
       </c>
       <c r="R5">
-        <v>6281.152632377565</v>
+        <v>6494.994343019206</v>
       </c>
       <c r="S5">
-        <v>0.0006453867964700742</v>
+        <v>0.0008981682515977365</v>
       </c>
       <c r="T5">
-        <v>0.0004502620381081559</v>
+        <v>0.0006376921378721431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>4859.945420830432</v>
+        <v>1617.658432228346</v>
       </c>
       <c r="R6">
-        <v>43739.5087874739</v>
+        <v>14558.92589005511</v>
       </c>
       <c r="S6">
-        <v>0.002996148754610253</v>
+        <v>0.001342199271337446</v>
       </c>
       <c r="T6">
-        <v>0.003135450055930715</v>
+        <v>0.001429425814039371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>53093.12274304439</v>
+        <v>40643.27199578258</v>
       </c>
       <c r="R7">
-        <v>477838.1046873995</v>
+        <v>365789.4479620432</v>
       </c>
       <c r="S7">
-        <v>0.03273182717302207</v>
+        <v>0.0337224280297317</v>
       </c>
       <c r="T7">
-        <v>0.03425364284148061</v>
+        <v>0.03591397355606543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>204122.0286007624</v>
@@ -948,10 +948,10 @@
         <v>1837098.257406862</v>
       </c>
       <c r="S8">
-        <v>0.1258409115376835</v>
+        <v>0.1693635891196536</v>
       </c>
       <c r="T8">
-        <v>0.1316916900444512</v>
+        <v>0.1803701517471061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>344972.3045656355</v>
+        <v>424805.5109918386</v>
       </c>
       <c r="R9">
-        <v>3104750.74109072</v>
+        <v>3823249.598926547</v>
       </c>
       <c r="S9">
-        <v>0.2126748864851955</v>
+        <v>0.3524685038286824</v>
       </c>
       <c r="T9">
-        <v>0.2225628763254806</v>
+        <v>0.3753746472433339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>171558.221101813</v>
+        <v>207575.4330201657</v>
       </c>
       <c r="R10">
-        <v>1029349.326610878</v>
+        <v>1245452.598120995</v>
       </c>
       <c r="S10">
-        <v>0.1057653751201009</v>
+        <v>0.1722289386909916</v>
       </c>
       <c r="T10">
-        <v>0.07378851507858275</v>
+        <v>0.1222811426722506</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>796443.2388588254</v>
+        <v>310195.3274919381</v>
       </c>
       <c r="R11">
-        <v>7167989.14972943</v>
+        <v>2791757.947427443</v>
       </c>
       <c r="S11">
-        <v>0.4910060117129626</v>
+        <v>0.257374445826886</v>
       </c>
       <c r="T11">
-        <v>0.5138345766440394</v>
+        <v>0.2741006381060196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>32.07275986239966</v>
+        <v>19.60436844097334</v>
       </c>
       <c r="R12">
-        <v>288.654838761597</v>
+        <v>176.43931596876</v>
       </c>
       <c r="S12">
-        <v>1.977280631728216E-05</v>
+        <v>1.626608467663892E-05</v>
       </c>
       <c r="T12">
-        <v>2.069211235858488E-05</v>
+        <v>1.732318130896399E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>123.3070587620655</v>
+        <v>98.45869338530333</v>
       </c>
       <c r="R13">
-        <v>1109.763528858589</v>
+        <v>886.1282404677302</v>
       </c>
       <c r="S13">
-        <v>7.601860896649481E-05</v>
+        <v>8.16928863879819E-05</v>
       </c>
       <c r="T13">
-        <v>7.955297659003475E-05</v>
+        <v>8.700192521338989E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>208.3925998675926</v>
+        <v>204.9058391289</v>
       </c>
       <c r="R14">
-        <v>1875.533398808333</v>
+        <v>1844.1525521601</v>
       </c>
       <c r="S14">
-        <v>0.0001284737120476945</v>
+        <v>0.0001700139303157761</v>
       </c>
       <c r="T14">
-        <v>0.0001344468985412476</v>
+        <v>0.0001810627571698049</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>103.6357506121594</v>
+        <v>100.124450330775</v>
       </c>
       <c r="R15">
-        <v>621.8145036729562</v>
+        <v>600.7467019846501</v>
       </c>
       <c r="S15">
-        <v>6.389127824333934E-05</v>
+        <v>8.307499383037785E-05</v>
       </c>
       <c r="T15">
-        <v>4.457453625721204E-05</v>
+        <v>5.898256849445541E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>481.119426099257</v>
+        <v>149.6233740593367</v>
       </c>
       <c r="R16">
-        <v>4330.074834893313</v>
+        <v>1346.61036653403</v>
       </c>
       <c r="S16">
-        <v>0.0002966093740780683</v>
+        <v>0.0001241451097688488</v>
       </c>
       <c r="T16">
-        <v>0.0003103997680728074</v>
+        <v>0.0001322130240865918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>1367.447958213168</v>
+        <v>361.0945133494914</v>
       </c>
       <c r="R17">
-        <v>8204.687749279012</v>
+        <v>2166.567080096948</v>
       </c>
       <c r="S17">
-        <v>0.0008430295285691994</v>
+        <v>0.0002996063835515699</v>
       </c>
       <c r="T17">
-        <v>0.0005881499215587475</v>
+        <v>0.0002127180902990887</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>5257.295800575418</v>
+        <v>1813.51896543053</v>
       </c>
       <c r="R18">
-        <v>31543.77480345251</v>
+        <v>10881.11379258318</v>
       </c>
       <c r="S18">
-        <v>0.003241114642563255</v>
+        <v>0.001504708154368834</v>
       </c>
       <c r="T18">
-        <v>0.002261203502588833</v>
+        <v>0.001068330525072778</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>8884.986400242771</v>
+        <v>3774.177907617705</v>
       </c>
       <c r="R19">
-        <v>53309.91840145663</v>
+        <v>22645.06744570623</v>
       </c>
       <c r="S19">
-        <v>0.005477580226254405</v>
+        <v>0.003131500900671783</v>
       </c>
       <c r="T19">
-        <v>0.003821501230059024</v>
+        <v>0.002223340115335428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>4418.593728150818</v>
+        <v>1844.200682895424</v>
       </c>
       <c r="R20">
-        <v>17674.37491260327</v>
+        <v>7376.802731581695</v>
       </c>
       <c r="S20">
-        <v>0.002724056126018305</v>
+        <v>0.001530165307748262</v>
       </c>
       <c r="T20">
-        <v>0.001266980845110283</v>
+        <v>0.0007242699309845244</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>20512.91437652089</v>
+        <v>2755.925527738278</v>
       </c>
       <c r="R21">
-        <v>123077.4862591254</v>
+        <v>16535.55316642967</v>
       </c>
       <c r="S21">
-        <v>0.01264617964621875</v>
+        <v>0.002286639232050465</v>
       </c>
       <c r="T21">
-        <v>0.008822762803534299</v>
+        <v>0.00162349521688688</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>30.569121152913</v>
+        <v>19.66717739905245</v>
       </c>
       <c r="R22">
-        <v>275.122090376217</v>
+        <v>177.004596591472</v>
       </c>
       <c r="S22">
-        <v>1.884581540345366E-05</v>
+        <v>1.631819835903794E-05</v>
       </c>
       <c r="T22">
-        <v>1.972202243626761E-05</v>
+        <v>1.737868174356904E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>117.526163463281</v>
+        <v>98.77413777026177</v>
       </c>
       <c r="R23">
-        <v>1057.735471169529</v>
+        <v>888.9672399323561</v>
       </c>
       <c r="S23">
-        <v>7.245469605180497E-05</v>
+        <v>8.195461606787203E-05</v>
       </c>
       <c r="T23">
-        <v>7.58233650577295E-05</v>
+        <v>8.728066412252549E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>198.622714729057</v>
+        <v>205.56232149908</v>
       </c>
       <c r="R24">
-        <v>1787.604432561513</v>
+        <v>1850.06089349172</v>
       </c>
       <c r="S24">
-        <v>0.0001224505931326045</v>
+        <v>0.0001705586251298028</v>
       </c>
       <c r="T24">
-        <v>0.0001281437440299314</v>
+        <v>0.0001816428504872207</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>98.77708777878603</v>
+        <v>100.44523150883</v>
       </c>
       <c r="R25">
-        <v>592.6625266727161</v>
+        <v>602.6713890529801</v>
       </c>
       <c r="S25">
-        <v>6.089592020189138E-05</v>
+        <v>8.33411515401059E-05</v>
       </c>
       <c r="T25">
-        <v>4.248478787068993E-05</v>
+        <v>5.917153829897224E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H26">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I26">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J26">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>458.563531437477</v>
+        <v>150.1027411074129</v>
       </c>
       <c r="R26">
-        <v>4127.071782937293</v>
+        <v>1350.924669966716</v>
       </c>
       <c r="S26">
-        <v>0.0002827037002796855</v>
+        <v>0.0001245428489267653</v>
       </c>
       <c r="T26">
-        <v>0.0002958475714831673</v>
+        <v>0.0001326366114269527</v>
       </c>
     </row>
   </sheetData>
